--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.3044071557646</v>
+        <v>155.7809492376922</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.6564826120507</v>
+        <v>213.1463673173535</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.5103200610639</v>
+        <v>192.8039771734516</v>
       </c>
       <c r="AD2" t="n">
-        <v>131304.4071557646</v>
+        <v>155780.9492376922</v>
       </c>
       <c r="AE2" t="n">
-        <v>179656.4826120507</v>
+        <v>213146.3673173535</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.311967474638153e-06</v>
+        <v>6.128006948954785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>162510.3200610639</v>
+        <v>192803.9771734516</v>
       </c>
     </row>
     <row r="3">
@@ -3783,28 +3783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.16193538510205</v>
+        <v>116.3825444118659</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.1000258914771</v>
+        <v>159.2397316997354</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.0652164029257</v>
+        <v>144.0421152007236</v>
       </c>
       <c r="AD3" t="n">
-        <v>92161.93538510206</v>
+        <v>116382.5444118659</v>
       </c>
       <c r="AE3" t="n">
-        <v>126100.0258914771</v>
+        <v>159239.7316997354</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.409286796825323e-06</v>
+        <v>8.158334989033139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.446180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>114065.2164029257</v>
+        <v>144042.1152007236</v>
       </c>
     </row>
     <row r="4">
@@ -3889,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.89573869006026</v>
+        <v>98.09142881228931</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.5263391282376</v>
+        <v>134.2130203893385</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.3097902711221</v>
+        <v>121.4039180925731</v>
       </c>
       <c r="AD4" t="n">
-        <v>85895.73869006026</v>
+        <v>98091.4288122893</v>
       </c>
       <c r="AE4" t="n">
-        <v>117526.3391282376</v>
+        <v>134213.0203893385</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.825337513316506e-06</v>
+        <v>8.928137742622721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.148148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>106309.7902711221</v>
+        <v>121403.9180925731</v>
       </c>
     </row>
     <row r="5">
@@ -3995,28 +3995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.93137942084103</v>
+        <v>95.12706954307009</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.4703719977928</v>
+        <v>130.1570532588937</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.64091895102</v>
+        <v>117.735046772471</v>
       </c>
       <c r="AD5" t="n">
-        <v>82931.37942084103</v>
+        <v>95127.06954307009</v>
       </c>
       <c r="AE5" t="n">
-        <v>113470.3719977928</v>
+        <v>130157.0532588937</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.046492470037583e-06</v>
+        <v>9.337332314115491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.012152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>102640.91895102</v>
+        <v>117735.046772471</v>
       </c>
     </row>
     <row r="6">
@@ -4101,28 +4101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.23087674904114</v>
+        <v>93.53673712182554</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.72473981872577</v>
+        <v>127.9810902796333</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.68434359745719</v>
+        <v>115.7667546459673</v>
       </c>
       <c r="AD6" t="n">
-        <v>69230.87674904114</v>
+        <v>93536.73712182554</v>
       </c>
       <c r="AE6" t="n">
-        <v>94724.73981872576</v>
+        <v>127981.0902796333</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.146329936845173e-06</v>
+        <v>9.522057766598928e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.951388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>85684.34359745719</v>
+        <v>115766.7546459673</v>
       </c>
     </row>
     <row r="7">
@@ -4207,28 +4207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.72210374769257</v>
+        <v>92.02796412047694</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.66037003591458</v>
+        <v>125.9167204968221</v>
       </c>
       <c r="AC7" t="n">
-        <v>83.81699436935564</v>
+        <v>113.8994054178658</v>
       </c>
       <c r="AD7" t="n">
-        <v>67722.10374769257</v>
+        <v>92027.96412047694</v>
       </c>
       <c r="AE7" t="n">
-        <v>92660.37003591459</v>
+        <v>125916.7204968221</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.256355972069741e-06</v>
+        <v>9.725634738167999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>83816.99436935564</v>
+        <v>113899.4054178658</v>
       </c>
     </row>
     <row r="8">
@@ -4313,28 +4313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.46129420390335</v>
+        <v>90.76715457668776</v>
       </c>
       <c r="AB8" t="n">
-        <v>90.93527479511167</v>
+        <v>124.1916252560192</v>
       </c>
       <c r="AC8" t="n">
-        <v>82.25653979714802</v>
+        <v>112.3389508456581</v>
       </c>
       <c r="AD8" t="n">
-        <v>66461.29420390335</v>
+        <v>90767.15457668775</v>
       </c>
       <c r="AE8" t="n">
-        <v>90935.27479511166</v>
+        <v>124191.6252560191</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.328201134927598e-06</v>
+        <v>9.858567099555344e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.853009259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>82256.53979714803</v>
+        <v>112338.9508456581</v>
       </c>
     </row>
     <row r="9">
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>65.76281338128209</v>
+        <v>90.0686737540665</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.97958251880263</v>
+        <v>123.2359329797101</v>
       </c>
       <c r="AC9" t="n">
-        <v>81.3920574503671</v>
+        <v>111.4744684988772</v>
       </c>
       <c r="AD9" t="n">
-        <v>65762.81338128209</v>
+        <v>90068.67375406649</v>
       </c>
       <c r="AE9" t="n">
-        <v>89979.58251880264</v>
+        <v>123235.9329797101</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.363125866872389e-06</v>
+        <v>9.92318699745197e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.832754629629629</v>
       </c>
       <c r="AH9" t="n">
-        <v>81392.05745036711</v>
+        <v>111474.4684988772</v>
       </c>
     </row>
     <row r="10">
@@ -4525,28 +4525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.87765439550448</v>
+        <v>89.18351476828886</v>
       </c>
       <c r="AB10" t="n">
-        <v>88.7684689440039</v>
+        <v>122.0248194049114</v>
       </c>
       <c r="AC10" t="n">
-        <v>80.29653085533818</v>
+        <v>110.3789419038483</v>
       </c>
       <c r="AD10" t="n">
-        <v>64877.65439550448</v>
+        <v>89183.51476828886</v>
       </c>
       <c r="AE10" t="n">
-        <v>88768.46894400389</v>
+        <v>122024.8194049114</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.402199551935434e-06</v>
+        <v>9.995483544873159e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH10" t="n">
-        <v>80296.53085533818</v>
+        <v>110378.9419038483</v>
       </c>
     </row>
     <row r="11">
@@ -4631,28 +4631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>64.05473131279953</v>
+        <v>88.36059168558391</v>
       </c>
       <c r="AB11" t="n">
-        <v>87.64250927744339</v>
+        <v>120.8988597383509</v>
       </c>
       <c r="AC11" t="n">
-        <v>79.27803119905957</v>
+        <v>109.3604422475697</v>
       </c>
       <c r="AD11" t="n">
-        <v>64054.73131279953</v>
+        <v>88360.59168558392</v>
       </c>
       <c r="AE11" t="n">
-        <v>87642.5092774434</v>
+        <v>120898.8597383509</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.441535828967989e-06</v>
+        <v>1.006826595618831e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.792245370370371</v>
       </c>
       <c r="AH11" t="n">
-        <v>79278.03119905957</v>
+        <v>109360.4422475696</v>
       </c>
     </row>
     <row r="12">
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>63.13745774037341</v>
+        <v>87.4433181131578</v>
       </c>
       <c r="AB12" t="n">
-        <v>86.38745510839665</v>
+        <v>119.6438055693041</v>
       </c>
       <c r="AC12" t="n">
-        <v>78.14275763842664</v>
+        <v>108.2251686869367</v>
       </c>
       <c r="AD12" t="n">
-        <v>63137.45774037341</v>
+        <v>87443.3181131578</v>
       </c>
       <c r="AE12" t="n">
-        <v>86387.45510839665</v>
+        <v>119643.8055693042</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.476040413761564e-06</v>
+        <v>1.01321084718546e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.77488425925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>78142.75763842664</v>
+        <v>108225.1686869367</v>
       </c>
     </row>
     <row r="13">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>63.26918190387629</v>
+        <v>87.57504227666068</v>
       </c>
       <c r="AB13" t="n">
-        <v>86.56768592016115</v>
+        <v>119.8240363810687</v>
       </c>
       <c r="AC13" t="n">
-        <v>78.30578747447193</v>
+        <v>108.388198522982</v>
       </c>
       <c r="AD13" t="n">
-        <v>63269.18190387629</v>
+        <v>87575.04227666068</v>
       </c>
       <c r="AE13" t="n">
-        <v>86567.68592016115</v>
+        <v>119824.0363810687</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.474622417126212e-06</v>
+        <v>1.012948480682722e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.77488425925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>78305.78747447193</v>
+        <v>108388.198522982</v>
       </c>
     </row>
   </sheetData>
@@ -5140,28 +5140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.5238079303154</v>
+        <v>134.965980849729</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.591794093356</v>
+        <v>184.6664092773609</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.0286474290559</v>
+        <v>167.0421063569147</v>
       </c>
       <c r="AD2" t="n">
-        <v>111523.8079303154</v>
+        <v>134965.980849729</v>
       </c>
       <c r="AE2" t="n">
-        <v>152591.794093356</v>
+        <v>184666.4092773609</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.874891716904231e-06</v>
+        <v>7.386141633752551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.056712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>138028.6474290559</v>
+        <v>167042.1063569147</v>
       </c>
     </row>
     <row r="3">
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.99036805232585</v>
+        <v>93.75416969359397</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.1828387288993</v>
+        <v>128.2785911167748</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.476266050245</v>
+        <v>116.0358624207571</v>
       </c>
       <c r="AD3" t="n">
-        <v>81990.36805232585</v>
+        <v>93754.16969359397</v>
       </c>
       <c r="AE3" t="n">
-        <v>112182.8387288993</v>
+        <v>128278.5911167748</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.906935729331151e-06</v>
+        <v>9.353376799266186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>101476.266050245</v>
+        <v>116035.8624207571</v>
       </c>
     </row>
     <row r="4">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.59043958535206</v>
+        <v>89.0325229962146</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.74373308661609</v>
+        <v>121.8182258010726</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.1787171569716</v>
+        <v>110.1920653036039</v>
       </c>
       <c r="AD4" t="n">
-        <v>65590.43958535205</v>
+        <v>89032.5229962146</v>
       </c>
       <c r="AE4" t="n">
-        <v>89743.73308661609</v>
+        <v>121818.2258010726</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.288818092110095e-06</v>
+        <v>1.008130351954389e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.971643518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>81178.7171569716</v>
+        <v>110192.0653036039</v>
       </c>
     </row>
     <row r="5">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.63256033271414</v>
+        <v>87.07464374357667</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.06487631762171</v>
+        <v>119.1393690320782</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.75552671821011</v>
+        <v>107.7688748648424</v>
       </c>
       <c r="AD5" t="n">
-        <v>63632.56033271414</v>
+        <v>87074.64374357667</v>
       </c>
       <c r="AE5" t="n">
-        <v>87064.8763176217</v>
+        <v>119139.3690320782</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.448872927897087e-06</v>
+        <v>1.038639273820062e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.884837962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>78755.52671821011</v>
+        <v>107768.8748648424</v>
       </c>
     </row>
     <row r="6">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.8738295758836</v>
+        <v>85.31591298674614</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.65850330640239</v>
+        <v>116.7329960208589</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.57881456981507</v>
+        <v>105.5921627164473</v>
       </c>
       <c r="AD6" t="n">
-        <v>61873.8295758836</v>
+        <v>85315.91298674615</v>
       </c>
       <c r="AE6" t="n">
-        <v>84658.50330640239</v>
+        <v>116732.9960208589</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.59203127558844e-06</v>
+        <v>1.065927464287152e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH6" t="n">
-        <v>76578.81456981506</v>
+        <v>105592.1627164473</v>
       </c>
     </row>
     <row r="7">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.76571899574522</v>
+        <v>84.20780240660775</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.14233752426924</v>
+        <v>115.2168302387258</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.20734952197617</v>
+        <v>104.2206976686085</v>
       </c>
       <c r="AD7" t="n">
-        <v>60765.71899574522</v>
+        <v>84207.80240660775</v>
       </c>
       <c r="AE7" t="n">
-        <v>83142.33752426924</v>
+        <v>115216.8302387258</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.659997534777009e-06</v>
+        <v>1.078882882228074e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>75207.34952197617</v>
+        <v>104220.6976686085</v>
       </c>
     </row>
     <row r="8">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.45579614304479</v>
+        <v>82.89787955390732</v>
       </c>
       <c r="AB8" t="n">
-        <v>81.35004328748775</v>
+        <v>113.4245360019443</v>
       </c>
       <c r="AC8" t="n">
-        <v>73.58610933165177</v>
+        <v>102.5994574782841</v>
       </c>
       <c r="AD8" t="n">
-        <v>59455.79614304479</v>
+        <v>82897.87955390732</v>
       </c>
       <c r="AE8" t="n">
-        <v>81350.04328748774</v>
+        <v>113424.5360019443</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.729973987083067e-06</v>
+        <v>1.092221474000982e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>73586.10933165177</v>
+        <v>102599.4574782841</v>
       </c>
     </row>
     <row r="9">
@@ -5882,28 +5882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.85252119985434</v>
+        <v>82.29460461071687</v>
       </c>
       <c r="AB9" t="n">
-        <v>80.52461589560286</v>
+        <v>112.5991086100594</v>
       </c>
       <c r="AC9" t="n">
-        <v>72.83945957155349</v>
+        <v>101.8528077181858</v>
       </c>
       <c r="AD9" t="n">
-        <v>58852.52119985435</v>
+        <v>82294.60461071688</v>
       </c>
       <c r="AE9" t="n">
-        <v>80524.61589560287</v>
+        <v>112599.1086100594</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.726605555372682e-06</v>
+        <v>1.091579398931168e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.745949074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>72839.4595715535</v>
+        <v>101852.8077181858</v>
       </c>
     </row>
     <row r="10">
@@ -5988,28 +5988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>58.6929128287252</v>
+        <v>82.13499623958772</v>
       </c>
       <c r="AB10" t="n">
-        <v>80.3062326807997</v>
+        <v>112.3807253952562</v>
       </c>
       <c r="AC10" t="n">
-        <v>72.64191854426831</v>
+        <v>101.6552666909006</v>
       </c>
       <c r="AD10" t="n">
-        <v>58692.9128287252</v>
+        <v>82134.99623958772</v>
       </c>
       <c r="AE10" t="n">
-        <v>80306.2326807997</v>
+        <v>112380.7253952562</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.76490788369238e-06</v>
+        <v>1.098880413837923e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.725694444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>72641.91854426831</v>
+        <v>101655.2666909006</v>
       </c>
     </row>
   </sheetData>
@@ -6285,28 +6285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.71974907114866</v>
+        <v>75.18328107089044</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.55241591292911</v>
+        <v>102.8690820134211</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.10109762231677</v>
+        <v>93.05140120374941</v>
       </c>
       <c r="AD2" t="n">
-        <v>64719.74907114865</v>
+        <v>75183.28107089044</v>
       </c>
       <c r="AE2" t="n">
-        <v>88552.41591292911</v>
+        <v>102869.0820134211</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.760600062548662e-06</v>
+        <v>1.226857056728913e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.043981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>80101.09762231677</v>
+        <v>93051.40120374941</v>
       </c>
     </row>
     <row r="3">
@@ -6391,28 +6391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.85981701801488</v>
+        <v>69.70136114582475</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.85215718702187</v>
+        <v>95.36847732671144</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.47188113269882</v>
+        <v>86.26664370117216</v>
       </c>
       <c r="AD3" t="n">
-        <v>48859.81701801488</v>
+        <v>69701.36114582475</v>
       </c>
       <c r="AE3" t="n">
-        <v>66852.15718702188</v>
+        <v>95368.47732671144</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.460623729933577e-06</v>
+        <v>1.375943778057119e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.714120370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>60471.88113269882</v>
+        <v>86266.64370117216</v>
       </c>
     </row>
     <row r="4">
@@ -6497,28 +6497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.10702611342583</v>
+        <v>68.94857024123569</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.82215546057286</v>
+        <v>94.3384756002624</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.54018132540526</v>
+        <v>85.3349438938786</v>
       </c>
       <c r="AD4" t="n">
-        <v>48107.02611342583</v>
+        <v>68948.57024123569</v>
       </c>
       <c r="AE4" t="n">
-        <v>65822.15546057286</v>
+        <v>94338.47560026241</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.552347624343672e-06</v>
+        <v>1.395478567125238e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.67650462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>59540.18132540525</v>
+        <v>85334.9438938786</v>
       </c>
     </row>
   </sheetData>
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.71951401434815</v>
+        <v>97.49251390615633</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.6027795835874</v>
+        <v>133.3935585925069</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.71507570757031</v>
+        <v>120.662664579509</v>
       </c>
       <c r="AD2" t="n">
-        <v>75719.51401434815</v>
+        <v>97492.51390615634</v>
       </c>
       <c r="AE2" t="n">
-        <v>103602.7795835874</v>
+        <v>133393.5585925069</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.982805336636734e-06</v>
+        <v>1.01168175469443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.368055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>93715.0757075703</v>
+        <v>120662.664579509</v>
       </c>
     </row>
     <row r="3">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.32910187950272</v>
+        <v>78.1873531173315</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.07196225609604</v>
+        <v>106.9793859176648</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.71632234957031</v>
+        <v>96.76942347222122</v>
       </c>
       <c r="AD3" t="n">
-        <v>56329.10187950272</v>
+        <v>78187.3531173315</v>
       </c>
       <c r="AE3" t="n">
-        <v>77071.96225609604</v>
+        <v>106979.3859176648</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.841739714051505e-06</v>
+        <v>1.186075129390635e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.873263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>69716.3223495703</v>
+        <v>96769.42347222121</v>
       </c>
     </row>
     <row r="4">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.56398590090423</v>
+        <v>75.42223713873301</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.288608585872</v>
+        <v>103.1960322474408</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.29404664366102</v>
+        <v>93.34714776631193</v>
       </c>
       <c r="AD4" t="n">
-        <v>53563.98590090423</v>
+        <v>75422.23713873301</v>
       </c>
       <c r="AE4" t="n">
-        <v>73288.608585872</v>
+        <v>103196.0322474408</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.134160182041058e-06</v>
+        <v>1.245446594293962e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>66294.04664366101</v>
+        <v>93347.14776631193</v>
       </c>
     </row>
     <row r="5">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.92779750356934</v>
+        <v>73.78604874139812</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.04990343710189</v>
+        <v>100.9573270986707</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.2690003722464</v>
+        <v>91.32210149489731</v>
       </c>
       <c r="AD5" t="n">
-        <v>51927.79750356934</v>
+        <v>73786.04874139812</v>
       </c>
       <c r="AE5" t="n">
-        <v>71049.90343710189</v>
+        <v>100957.3270986707</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.260709460334038e-06</v>
+        <v>1.271140472996671e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.679398148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>64269.0003722464</v>
+        <v>91322.10149489732</v>
       </c>
     </row>
     <row r="6">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.09316716787325</v>
+        <v>73.95141840570203</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.27616950739709</v>
+        <v>101.1835931689659</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.47367192635912</v>
+        <v>91.52677304901005</v>
       </c>
       <c r="AD6" t="n">
-        <v>52093.16716787325</v>
+        <v>73951.41840570203</v>
       </c>
       <c r="AE6" t="n">
-        <v>71276.16950739709</v>
+        <v>101183.5931689659</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.254909768386604e-06</v>
+        <v>1.269962935017628e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.682291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>64473.67192635912</v>
+        <v>91526.77304901005</v>
       </c>
     </row>
   </sheetData>
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.29588984835526</v>
+        <v>67.30352558777035</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.71232303789741</v>
+        <v>92.08765293114416</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.53626975149002</v>
+        <v>83.29893658125083</v>
       </c>
       <c r="AD2" t="n">
-        <v>47295.88984835526</v>
+        <v>67303.52558777035</v>
       </c>
       <c r="AE2" t="n">
-        <v>64712.32303789741</v>
+        <v>92087.65293114417</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.380856845453547e-06</v>
+        <v>1.42089218600803e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.855902777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>58536.26975149002</v>
+        <v>83298.93658125083</v>
       </c>
     </row>
     <row r="3">
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.12600952513375</v>
+        <v>65.13364526454885</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.74339705130355</v>
+        <v>89.11872694455029</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.85069389414193</v>
+        <v>80.61336072390276</v>
       </c>
       <c r="AD3" t="n">
-        <v>45126.00952513376</v>
+        <v>65133.64526454885</v>
       </c>
       <c r="AE3" t="n">
-        <v>61743.39705130355</v>
+        <v>89118.72694455029</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.715253209348476e-06</v>
+        <v>1.495355724682518e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.714120370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>55850.69389414193</v>
+        <v>80613.36072390276</v>
       </c>
     </row>
   </sheetData>
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.150761898271</v>
+        <v>139.8199712074338</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.9225966391122</v>
+        <v>191.3078530277105</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.7552470651843</v>
+        <v>173.0497000370579</v>
       </c>
       <c r="AD2" t="n">
-        <v>116150.761898271</v>
+        <v>139819.9712074338</v>
       </c>
       <c r="AE2" t="n">
-        <v>158922.5966391122</v>
+        <v>191307.8530277105</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.723786191135872e-06</v>
+        <v>7.040799639919091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>143755.2470651843</v>
+        <v>173049.7000370579</v>
       </c>
     </row>
     <row r="3">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.37997682117347</v>
+        <v>96.25729665731622</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.4524068685336</v>
+        <v>131.7034798587057</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.4337911955013</v>
+        <v>119.1338845880208</v>
       </c>
       <c r="AD3" t="n">
-        <v>84379.97682117348</v>
+        <v>96257.29665731621</v>
       </c>
       <c r="AE3" t="n">
-        <v>115452.4068685336</v>
+        <v>131703.4798587057</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.784356162984494e-06</v>
+        <v>9.046086810722801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104433.7911955013</v>
+        <v>119133.8845880208</v>
       </c>
     </row>
     <row r="4">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.53216701299286</v>
+        <v>91.40948684913558</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.8194196187096</v>
+        <v>125.0704926088818</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.43384693934239</v>
+        <v>113.1339403318618</v>
       </c>
       <c r="AD4" t="n">
-        <v>79532.16701299285</v>
+        <v>91409.48684913557</v>
       </c>
       <c r="AE4" t="n">
-        <v>108819.4196187096</v>
+        <v>125070.4926088818</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.167976888409483e-06</v>
+        <v>9.771422940887103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.015046296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>98433.84693934239</v>
+        <v>113133.9403318618</v>
       </c>
     </row>
     <row r="5">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.19617478189674</v>
+        <v>88.86529458250848</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.20428258879326</v>
+        <v>121.5894165078431</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.6907510575373</v>
+        <v>109.9850932481843</v>
       </c>
       <c r="AD5" t="n">
-        <v>65196.17478189674</v>
+        <v>88865.29458250849</v>
       </c>
       <c r="AE5" t="n">
-        <v>89204.28258879326</v>
+        <v>121589.4165078431</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.362237039614167e-06</v>
+        <v>1.013872297704609e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.905092592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>80690.7510575373</v>
+        <v>109985.0932481843</v>
       </c>
     </row>
     <row r="6">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.97583512209194</v>
+        <v>87.64495492270369</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.53456002866305</v>
+        <v>119.9196939477129</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.18038447507504</v>
+        <v>108.474726665722</v>
       </c>
       <c r="AD6" t="n">
-        <v>63975.83512209194</v>
+        <v>87644.95492270369</v>
       </c>
       <c r="AE6" t="n">
-        <v>87534.56002866305</v>
+        <v>119919.6939477129</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.459044066184569e-06</v>
+        <v>1.032176218575282e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.853009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>79180.38447507504</v>
+        <v>108474.726665722</v>
       </c>
     </row>
     <row r="7">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.64485304917319</v>
+        <v>86.31397284978495</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.71345163771164</v>
+        <v>118.0985855567615</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.53308011301378</v>
+        <v>106.8274223036607</v>
       </c>
       <c r="AD7" t="n">
-        <v>62644.85304917319</v>
+        <v>86313.97284978494</v>
       </c>
       <c r="AE7" t="n">
-        <v>85713.45163771164</v>
+        <v>118098.5855567615</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.53463753965779e-06</v>
+        <v>1.046469157898099e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.815393518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>77533.08011301378</v>
+        <v>106827.4223036607</v>
       </c>
     </row>
     <row r="8">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.51845395890015</v>
+        <v>85.18757375951189</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.17226270918016</v>
+        <v>116.55739662823</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.1389800927486</v>
+        <v>105.4333222833956</v>
       </c>
       <c r="AD8" t="n">
-        <v>61518.45395890015</v>
+        <v>85187.5737595119</v>
       </c>
       <c r="AE8" t="n">
-        <v>84172.26270918016</v>
+        <v>116557.39662823</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.606031375715829e-06</v>
+        <v>1.059968045036314e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>76138.98009274859</v>
+        <v>105433.3222833956</v>
       </c>
     </row>
     <row r="9">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>60.42194052908292</v>
+        <v>84.09106032969467</v>
       </c>
       <c r="AB9" t="n">
-        <v>82.67196465974656</v>
+        <v>115.0570985787964</v>
       </c>
       <c r="AC9" t="n">
-        <v>74.78186838347092</v>
+        <v>104.0762105741179</v>
       </c>
       <c r="AD9" t="n">
-        <v>60421.94052908292</v>
+        <v>84091.06032969466</v>
       </c>
       <c r="AE9" t="n">
-        <v>82671.96465974656</v>
+        <v>115057.0985787964</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.646250980191965e-06</v>
+        <v>1.0675726217273e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>74781.86838347092</v>
+        <v>104076.2105741179</v>
       </c>
     </row>
     <row r="10">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>60.04856832787713</v>
+        <v>83.71768812848887</v>
       </c>
       <c r="AB10" t="n">
-        <v>82.16110034203808</v>
+        <v>114.5462342610879</v>
       </c>
       <c r="AC10" t="n">
-        <v>74.31976023924182</v>
+        <v>103.6141024298888</v>
       </c>
       <c r="AD10" t="n">
-        <v>60048.56832787713</v>
+        <v>83717.68812848888</v>
       </c>
       <c r="AE10" t="n">
-        <v>82161.10034203809</v>
+        <v>114546.2342610879</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.677802102311129e-06</v>
+        <v>1.07353819326802e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>74319.76023924182</v>
+        <v>103614.1024298888</v>
       </c>
     </row>
     <row r="11">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>60.21547274173216</v>
+        <v>83.88459254234391</v>
       </c>
       <c r="AB11" t="n">
-        <v>82.38946632437747</v>
+        <v>114.7746002434273</v>
       </c>
       <c r="AC11" t="n">
-        <v>74.52633129274048</v>
+        <v>103.8206734833875</v>
       </c>
       <c r="AD11" t="n">
-        <v>60215.47274173216</v>
+        <v>83884.5925423439</v>
       </c>
       <c r="AE11" t="n">
-        <v>82389.46632437747</v>
+        <v>114774.6002434273</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.678502041880325e-06</v>
+        <v>1.073670535298786e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>74526.33129274048</v>
+        <v>103820.6734833875</v>
       </c>
     </row>
   </sheetData>
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.70898663797337</v>
+        <v>63.22282375299901</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.80456382245396</v>
+        <v>86.50425665295361</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.09690018748361</v>
+        <v>78.24841180750312</v>
       </c>
       <c r="AD2" t="n">
-        <v>43708.98663797336</v>
+        <v>63222.82375299901</v>
       </c>
       <c r="AE2" t="n">
-        <v>59804.56382245396</v>
+        <v>86504.25665295361</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.724453700382452e-06</v>
+        <v>1.541625895320185e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.771990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>54096.9001874836</v>
+        <v>78248.41180750311</v>
       </c>
     </row>
     <row r="3">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.37932586839732</v>
+        <v>62.89316298342298</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.35350741391353</v>
+        <v>86.05320024441318</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.68889196951248</v>
+        <v>77.840403589532</v>
       </c>
       <c r="AD3" t="n">
-        <v>43379.32586839733</v>
+        <v>62893.16298342298</v>
       </c>
       <c r="AE3" t="n">
-        <v>59353.50741391352</v>
+        <v>86053.20024441318</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.82033322420546e-06</v>
+        <v>1.563606916135023e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>53688.89196951248</v>
+        <v>77840.403589532</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.10851739322021</v>
+        <v>109.8990987265339</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.1857164539204</v>
+        <v>150.368795283632</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.810798953793</v>
+        <v>136.0178085057327</v>
       </c>
       <c r="AD2" t="n">
-        <v>87108.51739322022</v>
+        <v>109899.0987265339</v>
       </c>
       <c r="AE2" t="n">
-        <v>119185.7164539204</v>
+        <v>150368.7952836319</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.381430209575311e-06</v>
+        <v>8.587542659690493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107810.798953793</v>
+        <v>136017.8085057327</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.67717182714543</v>
+        <v>86.07255200235332</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.1766010181655</v>
+        <v>117.7682629025696</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.42500962277764</v>
+        <v>106.5286251799741</v>
       </c>
       <c r="AD3" t="n">
-        <v>74677.17182714543</v>
+        <v>86072.55200235332</v>
       </c>
       <c r="AE3" t="n">
-        <v>102176.6010181655</v>
+        <v>117768.2629025696</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.339967775642379e-06</v>
+        <v>1.046626304225587e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.032407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>92425.00962277764</v>
+        <v>106528.6251799741</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.97983942904369</v>
+        <v>82.68507990778575</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.06706243054919</v>
+        <v>113.133374138063</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.23469717404235</v>
+        <v>102.3360836940433</v>
       </c>
       <c r="AD4" t="n">
-        <v>59979.83942904368</v>
+        <v>82685.07990778575</v>
       </c>
       <c r="AE4" t="n">
-        <v>82067.06243054918</v>
+        <v>113133.3741380631</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.644814516170367e-06</v>
+        <v>1.106375844072884e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.87037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>74234.69717404235</v>
+        <v>102336.0836940433</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.90473333629706</v>
+        <v>80.60997381503911</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.22781072723492</v>
+        <v>110.2941224347488</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.6664196683767</v>
+        <v>99.76780618837766</v>
       </c>
       <c r="AD5" t="n">
-        <v>57904.73333629705</v>
+        <v>80609.97381503911</v>
       </c>
       <c r="AE5" t="n">
-        <v>79227.81072723493</v>
+        <v>110294.1224347488</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.838268488859445e-06</v>
+        <v>1.144292555367826e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.77488425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>71666.41966837671</v>
+        <v>99767.80618837767</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.26209924373051</v>
+        <v>78.96733972247256</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.98028629388489</v>
+        <v>108.0465980013988</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.63339581252453</v>
+        <v>97.73478233252548</v>
       </c>
       <c r="AD6" t="n">
-        <v>56262.09924373051</v>
+        <v>78967.33972247256</v>
       </c>
       <c r="AE6" t="n">
-        <v>76980.28629388488</v>
+        <v>108046.5980013988</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.958281601546189e-06</v>
+        <v>1.167814959597096e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.717013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>69633.39581252453</v>
+        <v>97734.78233252549</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.62903315696436</v>
+        <v>78.33427363570641</v>
       </c>
       <c r="AB7" t="n">
-        <v>76.11409734506725</v>
+        <v>107.1804090525811</v>
       </c>
       <c r="AC7" t="n">
-        <v>68.84987472127794</v>
+        <v>96.9512612412789</v>
       </c>
       <c r="AD7" t="n">
-        <v>55629.03315696436</v>
+        <v>78334.27363570641</v>
       </c>
       <c r="AE7" t="n">
-        <v>76114.09734506725</v>
+        <v>107180.4090525811</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.9834149446415e-06</v>
+        <v>1.172741060109663e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>68849.87472127794</v>
+        <v>96951.2612412789</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>55.79096894939295</v>
+        <v>78.49620942813502</v>
       </c>
       <c r="AB8" t="n">
-        <v>76.3356650403709</v>
+        <v>107.4019767478848</v>
       </c>
       <c r="AC8" t="n">
-        <v>69.0502963067141</v>
+        <v>97.15168282671506</v>
       </c>
       <c r="AD8" t="n">
-        <v>55790.96894939295</v>
+        <v>78496.20942813501</v>
       </c>
       <c r="AE8" t="n">
-        <v>76335.66504037089</v>
+        <v>107401.9767478848</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.978936843421846e-06</v>
+        <v>1.171863358459317e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>69050.2963067141</v>
+        <v>97151.68282671506</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.19181132203433</v>
+        <v>118.4835658540431</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.2456358170782</v>
+        <v>162.1144419274452</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8151751356288</v>
+        <v>146.6424671189828</v>
       </c>
       <c r="AD2" t="n">
-        <v>95191.81132203432</v>
+        <v>118483.5658540431</v>
       </c>
       <c r="AE2" t="n">
-        <v>130245.6358170782</v>
+        <v>162114.4419274452</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039377543673955e-06</v>
+        <v>7.766523649504907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.929398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>117815.1751356288</v>
+        <v>146642.4671189828</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.93757299430253</v>
+        <v>91.58353976885799</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.3741139675869</v>
+        <v>125.3086394923187</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.93560203808137</v>
+        <v>113.3493588109849</v>
       </c>
       <c r="AD3" t="n">
-        <v>79937.57299430252</v>
+        <v>91583.53976885798</v>
       </c>
       <c r="AE3" t="n">
-        <v>109374.1139675869</v>
+        <v>125308.6394923187</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.014203021763037e-06</v>
+        <v>9.640823599895951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.165509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>98935.60203808137</v>
+        <v>113349.3588109849</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.00373247680949</v>
+        <v>87.21014615424671</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.57273042013202</v>
+        <v>119.3247694083013</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.21491193795471</v>
+        <v>107.9365808893699</v>
       </c>
       <c r="AD4" t="n">
-        <v>64003.73247680948</v>
+        <v>87210.14615424672</v>
       </c>
       <c r="AE4" t="n">
-        <v>87572.73042013202</v>
+        <v>119324.7694083013</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.375690291150071e-06</v>
+        <v>1.033585628657466e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.951388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>79214.9119379547</v>
+        <v>107936.5808893699</v>
       </c>
     </row>
     <row r="5">
@@ -10823,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.69582972416988</v>
+        <v>84.90224340160711</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.41495605648856</v>
+        <v>116.1669950446579</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.3585111276122</v>
+        <v>105.0801800790274</v>
       </c>
       <c r="AD5" t="n">
-        <v>61695.82972416988</v>
+        <v>84902.24340160711</v>
       </c>
       <c r="AE5" t="n">
-        <v>84414.95605648856</v>
+        <v>116166.9950446579</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.583335686674166e-06</v>
+        <v>1.073509672835369e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.841435185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>76358.5111276122</v>
+        <v>105080.1800790274</v>
       </c>
     </row>
     <row r="6">
@@ -10929,28 +10929,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.19064517774222</v>
+        <v>83.39705885517944</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.35549615601163</v>
+        <v>114.107535144181</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.49560318956603</v>
+        <v>103.2172721409812</v>
       </c>
       <c r="AD6" t="n">
-        <v>60190.64517774222</v>
+        <v>83397.05885517944</v>
       </c>
       <c r="AE6" t="n">
-        <v>82355.49615601162</v>
+        <v>114107.535144181</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.680686605072282e-06</v>
+        <v>1.092227363911908e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.792245370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>74495.60318956603</v>
+        <v>103217.2721409812</v>
       </c>
     </row>
     <row r="7">
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.63966159356065</v>
+        <v>81.84607527099787</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.23337199156892</v>
+        <v>111.9854109797383</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.57601157695707</v>
+        <v>101.2976805283722</v>
       </c>
       <c r="AD7" t="n">
-        <v>58639.66159356065</v>
+        <v>81846.07527099787</v>
       </c>
       <c r="AE7" t="n">
-        <v>80233.37199156891</v>
+        <v>111985.4109797383</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.789993861617323e-06</v>
+        <v>1.113243903807989e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.740162037037038</v>
       </c>
       <c r="AH7" t="n">
-        <v>72576.01157695707</v>
+        <v>101297.6805283722</v>
       </c>
     </row>
     <row r="8">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.83578019182378</v>
+        <v>81.04219386926101</v>
       </c>
       <c r="AB8" t="n">
-        <v>79.13346599296861</v>
+        <v>110.8855049811379</v>
       </c>
       <c r="AC8" t="n">
-        <v>71.58107906313508</v>
+        <v>100.3027480145502</v>
       </c>
       <c r="AD8" t="n">
-        <v>57835.78019182378</v>
+        <v>81042.19386926101</v>
       </c>
       <c r="AE8" t="n">
-        <v>79133.46599296862</v>
+        <v>110885.5049811379</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.827069478990351e-06</v>
+        <v>1.12037244418418e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.722800925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>71581.07906313508</v>
+        <v>100302.7480145502</v>
       </c>
     </row>
     <row r="9">
@@ -11247,28 +11247,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>57.93558194549188</v>
+        <v>81.1419956229291</v>
       </c>
       <c r="AB9" t="n">
-        <v>79.27001915527985</v>
+        <v>111.0220581434492</v>
       </c>
       <c r="AC9" t="n">
-        <v>71.70459978328894</v>
+        <v>100.4262687347041</v>
       </c>
       <c r="AD9" t="n">
-        <v>57935.58194549188</v>
+        <v>81141.9956229291</v>
       </c>
       <c r="AE9" t="n">
-        <v>79270.01915527985</v>
+        <v>111022.0581434492</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.819829861396801e-06</v>
+        <v>1.11898048067877e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.725694444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>71704.59978328894</v>
+        <v>100426.2687347041</v>
       </c>
     </row>
   </sheetData>
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.783250732553</v>
+        <v>149.8837102652712</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.1021928175857</v>
+        <v>205.0775047874693</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.6770010820679</v>
+        <v>185.5051955586973</v>
       </c>
       <c r="AD2" t="n">
-        <v>125783.250732553</v>
+        <v>149883.7102652712</v>
       </c>
       <c r="AE2" t="n">
-        <v>172102.1928175857</v>
+        <v>205077.5047874693</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.447549148984107e-06</v>
+        <v>6.422522580282064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>155677.0010820679</v>
+        <v>185505.1955586973</v>
       </c>
     </row>
     <row r="3">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.40548486465804</v>
+        <v>113.4206035428046</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.3285286833931</v>
+        <v>155.187073531079</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.6536655950504</v>
+        <v>140.3762370397409</v>
       </c>
       <c r="AD3" t="n">
-        <v>89405.48486465804</v>
+        <v>113420.6035428046</v>
       </c>
       <c r="AE3" t="n">
-        <v>122328.5286833931</v>
+        <v>155187.073531079</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.536806124745685e-06</v>
+        <v>8.451725709879198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.376736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>110653.6655950504</v>
+        <v>140376.237039741</v>
       </c>
     </row>
     <row r="4">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.66584452423699</v>
+        <v>95.75878947215743</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.4752995545721</v>
+        <v>131.0214003353869</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.5499376322053</v>
+        <v>118.5169017771027</v>
       </c>
       <c r="AD4" t="n">
-        <v>83665.84452423699</v>
+        <v>95758.78947215743</v>
       </c>
       <c r="AE4" t="n">
-        <v>114475.2995545721</v>
+        <v>131021.4003353869</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.943636405593649e-06</v>
+        <v>9.209619666476883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.098958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>103549.9376322053</v>
+        <v>118516.9017771027</v>
       </c>
     </row>
     <row r="5">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.0300206695715</v>
+        <v>93.13039069373863</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.4499196696507</v>
+        <v>127.4251091699858</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.43575189769723</v>
+        <v>115.2638355931</v>
       </c>
       <c r="AD5" t="n">
-        <v>69030.0206695715</v>
+        <v>93130.39069373863</v>
       </c>
       <c r="AE5" t="n">
-        <v>94449.9196696507</v>
+        <v>127425.1091699858</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.128443758936558e-06</v>
+        <v>9.553901748777796e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.986111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>85435.75189769724</v>
+        <v>115263.8355931</v>
       </c>
     </row>
     <row r="6">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.16224818540761</v>
+        <v>91.26261820957474</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.89435095651244</v>
+        <v>124.8695404568476</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.12408307577687</v>
+        <v>112.9521667711797</v>
       </c>
       <c r="AD6" t="n">
-        <v>67162.2481854076</v>
+        <v>91262.61820957474</v>
       </c>
       <c r="AE6" t="n">
-        <v>91894.35095651244</v>
+        <v>124869.5404568476</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.271853418119009e-06</v>
+        <v>9.821063066724855e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.905092592592592</v>
       </c>
       <c r="AH6" t="n">
-        <v>83124.08307577687</v>
+        <v>112952.1667711797</v>
       </c>
     </row>
     <row r="7">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.09688269426044</v>
+        <v>90.19725271842759</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.43667089091733</v>
+        <v>123.4118603912525</v>
       </c>
       <c r="AC7" t="n">
-        <v>81.80552194977487</v>
+        <v>111.6336056451777</v>
       </c>
       <c r="AD7" t="n">
-        <v>66096.88269426045</v>
+        <v>90197.2527184276</v>
       </c>
       <c r="AE7" t="n">
-        <v>90436.67089091733</v>
+        <v>123411.8603912525</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.331567739107493e-06</v>
+        <v>9.932306317608678e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.873263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>81805.52194977488</v>
+        <v>111633.6056451777</v>
       </c>
     </row>
     <row r="8">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.93733561209504</v>
+        <v>89.03770563626216</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.8501274174925</v>
+        <v>121.8253169178277</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.37039595872545</v>
+        <v>110.1984796541282</v>
       </c>
       <c r="AD8" t="n">
-        <v>64937.33561209503</v>
+        <v>89037.70563626217</v>
       </c>
       <c r="AE8" t="n">
-        <v>88850.12741749251</v>
+        <v>121825.3169178277</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.405204814014392e-06</v>
+        <v>1.006948660305141e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.832754629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>80370.39595872545</v>
+        <v>110198.4796541282</v>
       </c>
     </row>
     <row r="9">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>63.67073533495051</v>
+        <v>87.77110535911766</v>
       </c>
       <c r="AB9" t="n">
-        <v>87.11710903984373</v>
+        <v>120.0922985401789</v>
       </c>
       <c r="AC9" t="n">
-        <v>78.80277442273236</v>
+        <v>108.6308581181352</v>
       </c>
       <c r="AD9" t="n">
-        <v>63670.73533495051</v>
+        <v>87771.10535911766</v>
       </c>
       <c r="AE9" t="n">
-        <v>87117.10903984372</v>
+        <v>120092.2985401789</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.484400402843092e-06</v>
+        <v>1.021702197833705e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.792245370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>78802.77442273236</v>
+        <v>108630.8581181351</v>
       </c>
     </row>
     <row r="10">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>62.9238375079014</v>
+        <v>87.02420753206854</v>
       </c>
       <c r="AB10" t="n">
-        <v>86.09517048206905</v>
+        <v>119.0703599824042</v>
       </c>
       <c r="AC10" t="n">
-        <v>77.87836824661161</v>
+        <v>107.7064519420144</v>
       </c>
       <c r="AD10" t="n">
-        <v>62923.83750790139</v>
+        <v>87024.20753206854</v>
       </c>
       <c r="AE10" t="n">
-        <v>86095.17048206905</v>
+        <v>119070.3599824042</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.508169667137267e-06</v>
+        <v>1.026130231490339e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.780671296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>77878.36824661162</v>
+        <v>107706.4519420144</v>
       </c>
     </row>
     <row r="11">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>62.55790859519051</v>
+        <v>86.65827861935766</v>
       </c>
       <c r="AB11" t="n">
-        <v>85.594490400054</v>
+        <v>118.5696799003892</v>
       </c>
       <c r="AC11" t="n">
-        <v>77.425472368915</v>
+        <v>107.2535560643178</v>
       </c>
       <c r="AD11" t="n">
-        <v>62557.90859519051</v>
+        <v>86658.27861935766</v>
       </c>
       <c r="AE11" t="n">
-        <v>85594.490400054</v>
+        <v>118569.6799003892</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.517433857006934e-06</v>
+        <v>1.027856079797491e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.77488425925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>77425.472368915</v>
+        <v>107253.5560643178</v>
       </c>
     </row>
     <row r="12">
@@ -12604,28 +12604,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>62.28709465525061</v>
+        <v>86.38746467941773</v>
       </c>
       <c r="AB12" t="n">
-        <v>85.22395081996059</v>
+        <v>118.1991403202958</v>
       </c>
       <c r="AC12" t="n">
-        <v>77.09029656629002</v>
+        <v>106.9183802616928</v>
       </c>
       <c r="AD12" t="n">
-        <v>62287.09465525061</v>
+        <v>86387.46467941774</v>
       </c>
       <c r="AE12" t="n">
-        <v>85223.95081996059</v>
+        <v>118199.1403202958</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.517275042323454e-06</v>
+        <v>1.027826493826511e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>77090.29656629002</v>
+        <v>106918.3802616928</v>
       </c>
     </row>
   </sheetData>
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.36429284795722</v>
+        <v>101.4346676255828</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.5897267800225</v>
+        <v>138.7873872269713</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.22607566280358</v>
+        <v>125.5417137793878</v>
       </c>
       <c r="AD2" t="n">
-        <v>79364.29284795721</v>
+        <v>101434.6676255828</v>
       </c>
       <c r="AE2" t="n">
-        <v>108589.7267800225</v>
+        <v>138787.3872269713</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.772054195190407e-06</v>
+        <v>9.565570012005748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.472222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>98226.07566280357</v>
+        <v>125541.7137793878</v>
       </c>
     </row>
     <row r="3">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.72990990683356</v>
+        <v>80.88553603047974</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.35685371526343</v>
+        <v>110.6711588148614</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.68770837824991</v>
+        <v>100.1088587455464</v>
       </c>
       <c r="AD3" t="n">
-        <v>58729.90990683356</v>
+        <v>80885.53603047974</v>
       </c>
       <c r="AE3" t="n">
-        <v>80356.85371526342</v>
+        <v>110671.1588148614</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.653742236270485e-06</v>
+        <v>1.133291135825447e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.93113425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>72687.70837824991</v>
+        <v>100108.8587455464</v>
       </c>
     </row>
     <row r="4">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.65465477531518</v>
+        <v>77.81028089896135</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.14915397364085</v>
+        <v>106.4634590732389</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.88158559442277</v>
+        <v>96.30273596171921</v>
       </c>
       <c r="AD4" t="n">
-        <v>55654.65477531518</v>
+        <v>77810.28089896135</v>
       </c>
       <c r="AE4" t="n">
-        <v>76149.15397364084</v>
+        <v>106463.4590732389</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.968160381481892e-06</v>
+        <v>1.196316169868354e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>68881.58559442278</v>
+        <v>96302.73596171921</v>
       </c>
     </row>
     <row r="5">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.97090133940861</v>
+        <v>76.12652746305479</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.84536824067558</v>
+        <v>104.1596733402736</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.7976699384274</v>
+        <v>94.21882030572384</v>
       </c>
       <c r="AD5" t="n">
-        <v>53970.90133940861</v>
+        <v>76126.52746305478</v>
       </c>
       <c r="AE5" t="n">
-        <v>73845.36824067558</v>
+        <v>104159.6733402736</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.096791192801533e-06</v>
+        <v>1.222100181974067e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.717013888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>66797.66993842741</v>
+        <v>94218.82030572384</v>
       </c>
     </row>
     <row r="6">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>53.26984545410838</v>
+        <v>75.42547157775455</v>
       </c>
       <c r="AB6" t="n">
-        <v>72.88615265000544</v>
+        <v>103.2004577496035</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.93000053746299</v>
+        <v>93.35115090475942</v>
       </c>
       <c r="AD6" t="n">
-        <v>53269.84545410838</v>
+        <v>75425.47157775455</v>
       </c>
       <c r="AE6" t="n">
-        <v>72886.15265000545</v>
+        <v>103200.4577496035</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.174049859083898e-06</v>
+        <v>1.237586661195175e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.685185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>65930.00053746298</v>
+        <v>93351.15090475942</v>
       </c>
     </row>
   </sheetData>
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.54116492414995</v>
+        <v>79.1865034395729</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.7810456719719</v>
+        <v>108.3464674679561</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.83071429558613</v>
+        <v>98.00603267806413</v>
       </c>
       <c r="AD2" t="n">
-        <v>68541.16492414995</v>
+        <v>79186.5034395729</v>
       </c>
       <c r="AE2" t="n">
-        <v>93781.04567197189</v>
+        <v>108346.4674679561</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.463967542487108e-06</v>
+        <v>1.143096180403135e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.159722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>84830.71429558613</v>
+        <v>98006.03267806413</v>
       </c>
     </row>
     <row r="3">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.65670708700035</v>
+        <v>72.86186424617254</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.6789855694873</v>
+        <v>99.69281710016134</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.93348238533032</v>
+        <v>90.17827455589438</v>
       </c>
       <c r="AD3" t="n">
-        <v>51656.70708700035</v>
+        <v>72861.86424617254</v>
       </c>
       <c r="AE3" t="n">
-        <v>70678.9855694873</v>
+        <v>99692.81710016134</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.20694160895944e-06</v>
+        <v>1.298531001514192e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.780671296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>63933.48238533032</v>
+        <v>90178.27455589437</v>
       </c>
     </row>
     <row r="4">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.56554947346669</v>
+        <v>70.77070663263888</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.81777146728912</v>
+        <v>96.83160299796316</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.34533854130581</v>
+        <v>87.59013071186986</v>
       </c>
       <c r="AD4" t="n">
-        <v>49565.54947346669</v>
+        <v>70770.70663263887</v>
       </c>
       <c r="AE4" t="n">
-        <v>67817.77146728912</v>
+        <v>96831.60299796316</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.422066426985717e-06</v>
+        <v>1.343536458791089e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.688078703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>61345.33854130581</v>
+        <v>87590.13071186986</v>
       </c>
     </row>
     <row r="5">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.4895873422184</v>
+        <v>70.69474450139059</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.71383672810254</v>
+        <v>96.72766825877659</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.25132318775386</v>
+        <v>87.49611535831789</v>
       </c>
       <c r="AD5" t="n">
-        <v>49489.5873422184</v>
+        <v>70694.74450139058</v>
       </c>
       <c r="AE5" t="n">
-        <v>67713.83672810254</v>
+        <v>96727.66825877658</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.460306861914957e-06</v>
+        <v>1.351536596926001e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.670717592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>61251.32318775386</v>
+        <v>87496.1153583179</v>
       </c>
     </row>
   </sheetData>
@@ -25218,28 +25218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.02851912693256</v>
+        <v>71.47394867814866</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.81947108882612</v>
+        <v>97.79380978947857</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.15599876036703</v>
+        <v>88.46050583766907</v>
       </c>
       <c r="AD2" t="n">
-        <v>51028.51912693256</v>
+        <v>71473.94867814866</v>
       </c>
       <c r="AE2" t="n">
-        <v>69819.47108882612</v>
+        <v>97793.80978947858</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.012441057556755e-06</v>
+        <v>1.307017968389382e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>63155.99876036703</v>
+        <v>88460.50583766907</v>
       </c>
     </row>
     <row r="3">
@@ -25324,28 +25324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.83026529340682</v>
+        <v>67.27569484462292</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.0752349799117</v>
+        <v>92.04957368056415</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.95998448359956</v>
+        <v>83.26449156090159</v>
       </c>
       <c r="AD3" t="n">
-        <v>46830.26529340682</v>
+        <v>67275.69484462292</v>
       </c>
       <c r="AE3" t="n">
-        <v>64075.23497991169</v>
+        <v>92049.57368056415</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.616054938696931e-06</v>
+        <v>1.438234920217606e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.699652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>57959.98448359955</v>
+        <v>83264.49156090159</v>
       </c>
     </row>
     <row r="4">
@@ -25430,28 +25430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.75641154885712</v>
+        <v>67.20184110007321</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.97418502842157</v>
+        <v>91.94852372907404</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.86857859765513</v>
+        <v>83.17308567495716</v>
       </c>
       <c r="AD4" t="n">
-        <v>46756.41154885712</v>
+        <v>67201.84110007322</v>
       </c>
       <c r="AE4" t="n">
-        <v>63974.18502842158</v>
+        <v>91948.52372907403</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.648515924432513e-06</v>
+        <v>1.445291470331259e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.685185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>57868.57859765513</v>
+        <v>83173.08567495717</v>
       </c>
     </row>
   </sheetData>
@@ -25727,28 +25727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.30343805877509</v>
+        <v>60.2428518862877</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.51318613092361</v>
+        <v>82.42692767784094</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.11964696345429</v>
+        <v>74.56021738720675</v>
       </c>
       <c r="AD2" t="n">
-        <v>41303.43805877509</v>
+        <v>60242.8518862877</v>
       </c>
       <c r="AE2" t="n">
-        <v>56513.18613092361</v>
+        <v>82426.92767784094</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.812716536898092e-06</v>
+        <v>1.62042299778516e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>51119.64696345429</v>
+        <v>74560.21738720675</v>
       </c>
     </row>
   </sheetData>
@@ -26024,28 +26024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.13464356681931</v>
+        <v>114.1811561691261</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.6944399047869</v>
+        <v>156.2276951876254</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.7937775700525</v>
+        <v>141.3175432259086</v>
       </c>
       <c r="AD2" t="n">
-        <v>91134.6435668193</v>
+        <v>114181.1561691261</v>
       </c>
       <c r="AE2" t="n">
-        <v>124694.4399047869</v>
+        <v>156227.6951876254</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.20273023583588e-06</v>
+        <v>8.155726655081437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.813657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>112793.7775700525</v>
+        <v>141317.5432259086</v>
       </c>
     </row>
     <row r="3">
@@ -26130,28 +26130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.1684748042335</v>
+        <v>88.69182061393798</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.5853116599461</v>
+        <v>121.3520617709137</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.50839770506319</v>
+        <v>109.7703913142178</v>
       </c>
       <c r="AD3" t="n">
-        <v>77168.4748042335</v>
+        <v>88691.82061393798</v>
       </c>
       <c r="AE3" t="n">
-        <v>105585.3116599461</v>
+        <v>121352.0617709137</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183520545120193e-06</v>
+        <v>1.005902694313447e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.093171296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>95508.39770506319</v>
+        <v>109770.3913142178</v>
       </c>
     </row>
     <row r="4">
@@ -26236,28 +26236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.98484265146575</v>
+        <v>84.94601439920096</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.81039629396506</v>
+        <v>116.2268844546059</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.71621110382793</v>
+        <v>105.1343537277453</v>
       </c>
       <c r="AD4" t="n">
-        <v>61984.84265146575</v>
+        <v>84946.01439920097</v>
       </c>
       <c r="AE4" t="n">
-        <v>84810.39629396505</v>
+        <v>116226.8844546059</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.508234924032688e-06</v>
+        <v>1.068916058645125e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.91087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>76716.21110382793</v>
+        <v>105134.3537277453</v>
       </c>
     </row>
     <row r="5">
@@ -26342,28 +26342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.77197313114277</v>
+        <v>82.73314487887799</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.78265059134746</v>
+        <v>113.1991387519883</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.97742920159942</v>
+        <v>102.3955718255168</v>
       </c>
       <c r="AD5" t="n">
-        <v>59771.97313114277</v>
+        <v>82733.144878878</v>
       </c>
       <c r="AE5" t="n">
-        <v>81782.65059134747</v>
+        <v>113199.1387519883</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.714574238507108e-06</v>
+        <v>1.108957816088916e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.803819444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>73977.42920159941</v>
+        <v>102395.5718255168</v>
       </c>
     </row>
     <row r="6">
@@ -26448,28 +26448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.38684238742936</v>
+        <v>81.34801413516459</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.88745360014406</v>
+        <v>111.3039417607849</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.26310715131019</v>
+        <v>100.6812497752275</v>
       </c>
       <c r="AD6" t="n">
-        <v>58386.84238742936</v>
+        <v>81348.01413516459</v>
       </c>
       <c r="AE6" t="n">
-        <v>79887.45360014406</v>
+        <v>111303.9417607849</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.814558792232295e-06</v>
+        <v>1.12836060056839e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.757523148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>72263.10715131019</v>
+        <v>100681.2497752275</v>
       </c>
     </row>
     <row r="7">
@@ -26554,28 +26554,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.12843807573957</v>
+        <v>80.08960982347479</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.1656493040109</v>
+        <v>109.5821374646518</v>
       </c>
       <c r="AC7" t="n">
-        <v>70.70562944063194</v>
+        <v>99.1237720645493</v>
       </c>
       <c r="AD7" t="n">
-        <v>57128.43807573957</v>
+        <v>80089.60982347479</v>
       </c>
       <c r="AE7" t="n">
-        <v>78165.64930401091</v>
+        <v>109582.1374646518</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.887511510933722e-06</v>
+        <v>1.142517646086101e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.722800925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>70705.62944063194</v>
+        <v>99123.7720645493</v>
       </c>
     </row>
     <row r="8">
@@ -26660,28 +26660,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>56.60166072360512</v>
+        <v>79.56283247134033</v>
       </c>
       <c r="AB8" t="n">
-        <v>77.4448892910443</v>
+        <v>108.8613774516852</v>
       </c>
       <c r="AC8" t="n">
-        <v>70.05365775170961</v>
+        <v>98.47180037562694</v>
       </c>
       <c r="AD8" t="n">
-        <v>56601.66072360512</v>
+        <v>79562.83247134033</v>
       </c>
       <c r="AE8" t="n">
-        <v>77444.88929104431</v>
+        <v>108861.3774516852</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.92191062886355e-06</v>
+        <v>1.149193063904247e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.705439814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>70053.6577517096</v>
+        <v>98471.80037562695</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.1296098242371</v>
+        <v>145.0180198864651</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.7348760226839</v>
+        <v>198.4200525520806</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.9173720654842</v>
+        <v>179.4831212208591</v>
       </c>
       <c r="AD2" t="n">
-        <v>121129.6098242371</v>
+        <v>145018.0198864651</v>
       </c>
       <c r="AE2" t="n">
-        <v>165734.8760226839</v>
+        <v>198420.0525520806</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.576310024372758e-06</v>
+        <v>6.710560339101492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.320023148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>149917.3720654842</v>
+        <v>179483.1212208591</v>
       </c>
     </row>
     <row r="3">
@@ -27063,28 +27063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.84149851550575</v>
+        <v>110.6445677231622</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.8203694453902</v>
+        <v>151.3887788525893</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.480320150989</v>
+        <v>136.9404462744251</v>
       </c>
       <c r="AD3" t="n">
-        <v>86841.49851550575</v>
+        <v>110644.5677231622</v>
       </c>
       <c r="AE3" t="n">
-        <v>118820.3694453902</v>
+        <v>151388.7788525893</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.654877172426846e-06</v>
+        <v>8.734375354428357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.318865740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>107480.320150989</v>
+        <v>136940.446274425</v>
       </c>
     </row>
     <row r="4">
@@ -27169,28 +27169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.5535163815251</v>
+        <v>93.54043659420046</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.5851190003745</v>
+        <v>127.9861520609459</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.9355918537055</v>
+        <v>115.7713333379756</v>
       </c>
       <c r="AD4" t="n">
-        <v>81553.5163815251</v>
+        <v>93540.43659420045</v>
       </c>
       <c r="AE4" t="n">
-        <v>111585.1190003745</v>
+        <v>127986.1520609459</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.054362302390066e-06</v>
+        <v>9.483966147989986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.055555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>100935.5918537055</v>
+        <v>115771.3333379756</v>
       </c>
     </row>
     <row r="5">
@@ -27275,28 +27275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.00597310329009</v>
+        <v>90.89429365696708</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.68052849478933</v>
+        <v>124.3655825546376</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.93066752969884</v>
+        <v>112.4963059038471</v>
       </c>
       <c r="AD5" t="n">
-        <v>67005.97310329009</v>
+        <v>90894.29365696709</v>
       </c>
       <c r="AE5" t="n">
-        <v>91680.52849478932</v>
+        <v>124365.5825546376</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.249941339827964e-06</v>
+        <v>9.850949134041537e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.942708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>82930.66752969884</v>
+        <v>112496.3059038471</v>
       </c>
     </row>
     <row r="6">
@@ -27381,28 +27381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.389297906978</v>
+        <v>89.27761846065499</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.46852216852028</v>
+        <v>122.1535762283686</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.92977198263782</v>
+        <v>110.4954103567861</v>
       </c>
       <c r="AD6" t="n">
-        <v>65389.297906978</v>
+        <v>89277.61846065499</v>
       </c>
       <c r="AE6" t="n">
-        <v>89468.52216852029</v>
+        <v>122153.5762283686</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.378957315124744e-06</v>
+        <v>1.009303370753679e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.87037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>80929.77198263782</v>
+        <v>110495.4103567861</v>
       </c>
     </row>
     <row r="7">
@@ -27487,28 +27487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.25346458585067</v>
+        <v>88.14178513952767</v>
       </c>
       <c r="AB7" t="n">
-        <v>87.91442490912507</v>
+        <v>120.5994789689734</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.5239955844896</v>
+        <v>109.0896339586379</v>
       </c>
       <c r="AD7" t="n">
-        <v>64253.46458585067</v>
+        <v>88141.78513952767</v>
       </c>
       <c r="AE7" t="n">
-        <v>87914.42490912507</v>
+        <v>120599.4789689734</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.453740675236779e-06</v>
+        <v>1.023335662332779e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.832754629629629</v>
       </c>
       <c r="AH7" t="n">
-        <v>79523.9955844896</v>
+        <v>109089.6339586379</v>
       </c>
     </row>
     <row r="8">
@@ -27593,28 +27593,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.92498671196392</v>
+        <v>86.8133072656409</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.09674287376669</v>
+        <v>118.781796933615</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.8797905714525</v>
+        <v>107.4454289456008</v>
       </c>
       <c r="AD8" t="n">
-        <v>62924.98671196392</v>
+        <v>86813.30726564091</v>
       </c>
       <c r="AE8" t="n">
-        <v>86096.74287376669</v>
+        <v>118781.796933615</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.528577413907066e-06</v>
+        <v>1.03737796982307e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.792245370370371</v>
       </c>
       <c r="AH8" t="n">
-        <v>77879.7905714525</v>
+        <v>107445.4289456008</v>
       </c>
     </row>
     <row r="9">
@@ -27699,28 +27699,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.20976967566749</v>
+        <v>86.09809022934446</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.11815137155767</v>
+        <v>117.803205431406</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.99459446875218</v>
+        <v>106.5602328429004</v>
       </c>
       <c r="AD9" t="n">
-        <v>62209.76967566748</v>
+        <v>86098.09022934447</v>
       </c>
       <c r="AE9" t="n">
-        <v>85118.15137155767</v>
+        <v>117803.205431406</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.559483599135381e-06</v>
+        <v>1.043177182402869e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>76994.59446875218</v>
+        <v>106560.2328429004</v>
       </c>
     </row>
     <row r="10">
@@ -27805,28 +27805,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>61.48487236904391</v>
+        <v>85.3731929227209</v>
       </c>
       <c r="AB10" t="n">
-        <v>84.12631489642366</v>
+        <v>116.811368956272</v>
       </c>
       <c r="AC10" t="n">
-        <v>76.09741747475343</v>
+        <v>105.6630558489017</v>
       </c>
       <c r="AD10" t="n">
-        <v>61484.87236904391</v>
+        <v>85373.1929227209</v>
       </c>
       <c r="AE10" t="n">
-        <v>84126.31489642366</v>
+        <v>116811.368956272</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.591510734087001e-06</v>
+        <v>1.049186729117687e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.763310185185186</v>
       </c>
       <c r="AH10" t="n">
-        <v>76097.41747475343</v>
+        <v>105663.0558489017</v>
       </c>
     </row>
     <row r="11">
@@ -27911,28 +27911,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>61.36019025738303</v>
+        <v>85.24851081106003</v>
       </c>
       <c r="AB11" t="n">
-        <v>83.95571933066277</v>
+        <v>116.6407733905111</v>
       </c>
       <c r="AC11" t="n">
-        <v>75.94310331035632</v>
+        <v>105.5087416845046</v>
       </c>
       <c r="AD11" t="n">
-        <v>61360.19025738303</v>
+        <v>85248.51081106003</v>
       </c>
       <c r="AE11" t="n">
-        <v>83955.71933066277</v>
+        <v>116640.7733905111</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.591510734087001e-06</v>
+        <v>1.049186729117687e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.763310185185186</v>
       </c>
       <c r="AH11" t="n">
-        <v>75943.10331035632</v>
+        <v>105508.7416845046</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.89940682642811</v>
+        <v>57.134451898326</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.22388454046966</v>
+        <v>78.17387768138478</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.1442717002197</v>
+        <v>70.71307251321784</v>
       </c>
       <c r="AD2" t="n">
-        <v>38899.40682642811</v>
+        <v>57134.451898326</v>
       </c>
       <c r="AE2" t="n">
-        <v>53223.88454046966</v>
+        <v>78173.87768138478</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.640446822761056e-06</v>
+        <v>1.660725356332597e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.98900462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>48144.2717002197</v>
+        <v>70713.07251321783</v>
       </c>
     </row>
   </sheetData>
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.98125007444777</v>
+        <v>82.7952865573416</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.48792194045274</v>
+        <v>113.2841637379595</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.08837289914699</v>
+        <v>102.4724821461602</v>
       </c>
       <c r="AD2" t="n">
-        <v>71981.25007444777</v>
+        <v>82795.28655734159</v>
       </c>
       <c r="AE2" t="n">
-        <v>98487.92194045274</v>
+        <v>113284.1637379595</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.226362603938912e-06</v>
+        <v>1.076256205642401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89088.37289914698</v>
+        <v>102472.4821461602</v>
       </c>
     </row>
     <row r="3">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.18336076549357</v>
+        <v>75.7259138596075</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.13606460049327</v>
+        <v>103.6115361342125</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.06062264565907</v>
+        <v>93.72299654529363</v>
       </c>
       <c r="AD3" t="n">
-        <v>54183.36076549358</v>
+        <v>75725.91385960751</v>
       </c>
       <c r="AE3" t="n">
-        <v>74136.06460049326</v>
+        <v>103611.5361342125</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.99995268633562e-06</v>
+        <v>1.235560331646859e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.835648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>67060.62264565907</v>
+        <v>93722.99654529363</v>
       </c>
     </row>
     <row r="4">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.45819917598804</v>
+        <v>73.00075227010198</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.40737828808942</v>
+        <v>99.88284982180865</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.68779692166576</v>
+        <v>90.35017082130032</v>
       </c>
       <c r="AD4" t="n">
-        <v>51458.19917598803</v>
+        <v>73000.75227010198</v>
       </c>
       <c r="AE4" t="n">
-        <v>70407.37828808941</v>
+        <v>99882.84982180865</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.285603131685997e-06</v>
+        <v>1.2943838553383e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.705439814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>63687.79692166577</v>
+        <v>90350.17082130033</v>
       </c>
     </row>
     <row r="5">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.88847833630705</v>
+        <v>72.43103143042097</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.62786110092873</v>
+        <v>99.10333263464794</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.98267576078819</v>
+        <v>89.64504966042274</v>
       </c>
       <c r="AD5" t="n">
-        <v>50888.47833630705</v>
+        <v>72431.03143042098</v>
       </c>
       <c r="AE5" t="n">
-        <v>69627.86110092873</v>
+        <v>99103.33263464794</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.346507404454672e-06</v>
+        <v>1.306925771482431e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.679398148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>62982.67576078819</v>
+        <v>89645.04966042274</v>
       </c>
     </row>
   </sheetData>
@@ -29120,28 +29120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.17713679939069</v>
+        <v>105.6997514569375</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.8066280851746</v>
+        <v>144.6230630872466</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.9450832293606</v>
+        <v>130.8204409259828</v>
       </c>
       <c r="AD2" t="n">
-        <v>83177.13679939069</v>
+        <v>105699.7514569375</v>
       </c>
       <c r="AE2" t="n">
-        <v>113806.6280851746</v>
+        <v>144623.0630872466</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.57085868678182e-06</v>
+        <v>9.055712607456661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.582175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>102945.0832293606</v>
+        <v>130820.4409259828</v>
       </c>
     </row>
     <row r="3">
@@ -29226,28 +29226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.1655944970649</v>
+        <v>83.60286830004009</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.68946482643662</v>
+        <v>114.3891327063111</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.70225976232288</v>
+        <v>103.4719944270063</v>
       </c>
       <c r="AD3" t="n">
-        <v>61165.5944970649</v>
+        <v>83602.86830004009</v>
       </c>
       <c r="AE3" t="n">
-        <v>83689.46482643663</v>
+        <v>114389.1327063111</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.476121559800735e-06</v>
+        <v>1.084920502846861e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.991898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>75702.25976232288</v>
+        <v>103471.9944270063</v>
       </c>
     </row>
     <row r="4">
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.70581558869454</v>
+        <v>80.14308939166972</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.95564268933364</v>
+        <v>109.6553105692081</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.4202269660224</v>
+        <v>99.18996163070587</v>
       </c>
       <c r="AD4" t="n">
-        <v>57705.81558869454</v>
+        <v>80143.08939166972</v>
       </c>
       <c r="AE4" t="n">
-        <v>78955.64268933365</v>
+        <v>109655.3105692081</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.819231697117269e-06</v>
+        <v>1.152896938111175e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.815393518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>71420.2269660224</v>
+        <v>99189.96163070586</v>
       </c>
     </row>
     <row r="5">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.92818273564016</v>
+        <v>78.36545653861535</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.52340699615925</v>
+        <v>107.2230748760337</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.22012043373955</v>
+        <v>96.98985509842302</v>
       </c>
       <c r="AD5" t="n">
-        <v>55928.18273564016</v>
+        <v>78365.45653861534</v>
       </c>
       <c r="AE5" t="n">
-        <v>76523.40699615925</v>
+        <v>107223.0748760337</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.962939489701677e-06</v>
+        <v>1.181368097651936e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.745949074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>69220.12043373955</v>
+        <v>96989.85509842302</v>
       </c>
     </row>
     <row r="6">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.66879570904921</v>
+        <v>77.1060695120244</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.80025810614401</v>
+        <v>105.4999259860184</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.66142645533218</v>
+        <v>95.43116112001563</v>
       </c>
       <c r="AD6" t="n">
-        <v>54668.79570904921</v>
+        <v>77106.06951202441</v>
       </c>
       <c r="AE6" t="n">
-        <v>74800.25810614401</v>
+        <v>105499.9259860184</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.052594134622394e-06</v>
+        <v>1.199130333458382e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.705439814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>67661.42645533217</v>
+        <v>95431.16112001563</v>
       </c>
     </row>
     <row r="7">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>54.34274471547645</v>
+        <v>76.78001851845164</v>
       </c>
       <c r="AB7" t="n">
-        <v>74.35414075238334</v>
+        <v>105.0538086322578</v>
       </c>
       <c r="AC7" t="n">
-        <v>67.25788591568462</v>
+        <v>95.02762058036811</v>
       </c>
       <c r="AD7" t="n">
-        <v>54342.74471547645</v>
+        <v>76780.01851845164</v>
       </c>
       <c r="AE7" t="n">
-        <v>74354.14075238335</v>
+        <v>105053.8086322578</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.090063436981937e-06</v>
+        <v>1.206553692109813e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.688078703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>67257.88591568463</v>
+        <v>95027.62058036811</v>
       </c>
     </row>
   </sheetData>
